--- a/Topic model/Topic-Model.xlsx
+++ b/Topic model/Topic-Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IDEA3C\Dropbox\Paper\論文\論文正式版\資料\Python-Tech-trends-mining\Topic model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FA6856-05F1-4B71-AFF1-4EBD1A146EBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3126C75D-A37A-41CE-B855-1D07FF3A6B62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25740" windowHeight="7935" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25740" windowHeight="7935" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 single year" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
     <sheet name="two year" sheetId="3" r:id="rId3"/>
     <sheet name="corssdomaintest" sheetId="4" r:id="rId4"/>
     <sheet name="2018corsskeywords" sheetId="5" r:id="rId5"/>
-    <sheet name="2019crosskeywords" sheetId="6" r:id="rId6"/>
+    <sheet name="2018crossDomain" sheetId="7" r:id="rId6"/>
+    <sheet name="2018corssdomain" sheetId="8" r:id="rId7"/>
+    <sheet name="2019crosskeywords" sheetId="6" r:id="rId8"/>
+    <sheet name="2019crossdomain" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="123">
   <si>
     <t>2018-Regtech100</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -499,6 +502,9 @@
   <si>
     <t>prevention</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regulatory</t>
   </si>
 </sst>
 </file>
@@ -883,7 +889,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D21"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1588,7 +1594,7 @@
   <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3833,8 +3839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CJ8"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="CE18" sqref="CE18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5972,8 +5978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404AD2C0-BA04-44B5-9E4F-30913D30636E}">
   <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6152,11 +6158,3394 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823018FB-63D0-44F6-80FC-6FBBF3A1436B}">
+  <dimension ref="A1:CJ8"/>
+  <sheetViews>
+    <sheetView topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="21" max="21" width="14.25" customWidth="1"/>
+    <col min="42" max="42" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>17</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>18</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>19</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>37</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>1</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>1</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BF4">
+        <v>1</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>1</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>1</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5">
+        <v>1</v>
+      </c>
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
+        <v>1</v>
+      </c>
+      <c r="BT5">
+        <v>1</v>
+      </c>
+      <c r="BU5">
+        <v>1</v>
+      </c>
+      <c r="BV5">
+        <v>1</v>
+      </c>
+      <c r="BW5">
+        <v>1</v>
+      </c>
+      <c r="BX5">
+        <v>1</v>
+      </c>
+      <c r="BY5">
+        <v>1</v>
+      </c>
+      <c r="BZ5">
+        <v>1</v>
+      </c>
+      <c r="CA5">
+        <v>1</v>
+      </c>
+      <c r="CB5">
+        <v>1</v>
+      </c>
+      <c r="CC5">
+        <v>1</v>
+      </c>
+      <c r="CD5">
+        <v>1</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>1</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>1</v>
+      </c>
+      <c r="CG6">
+        <v>1</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>1</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>1</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>1</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>1</v>
+      </c>
+      <c r="CJ8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521BCC45-183D-4A62-B622-9C5A36FAF0FD}">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="6" max="7" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8276E2-F87B-448C-B463-65125163AA09}">
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6169,7 +9558,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C1" t="s">
@@ -6184,7 +9573,7 @@
       <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6386,6 +9775,2231 @@
       </c>
       <c r="G11" t="s">
         <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0590B6B5-6004-4198-B532-BBF9AB18A4EE}">
+  <dimension ref="A1:J69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G68" sqref="B68:G68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="b">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Topic model/Topic-Model.xlsx
+++ b/Topic model/Topic-Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IDEA3C\Dropbox\Paper\論文\論文正式版\資料\Python-Tech-trends-mining\Topic model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3126C75D-A37A-41CE-B855-1D07FF3A6B62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73099738-31E6-4558-987F-4973A4DA3ABB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25740" windowHeight="7935" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25740" windowHeight="7935" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 single year" sheetId="1" r:id="rId1"/>
@@ -8304,8 +8304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521BCC45-183D-4A62-B622-9C5A36FAF0FD}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H47" sqref="A1:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -9420,10 +9420,10 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -9472,10 +9472,10 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -9788,8 +9788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0590B6B5-6004-4198-B532-BBF9AB18A4EE}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G68" sqref="B68:G68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J69" sqref="A1:J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -11769,10 +11769,10 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -11865,10 +11865,10 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -11897,10 +11897,10 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>0</v>

--- a/Topic model/Topic-Model.xlsx
+++ b/Topic model/Topic-Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IDEA3C\Dropbox\Paper\論文\論文正式版\資料\Python-Tech-trends-mining\Topic model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73099738-31E6-4558-987F-4973A4DA3ABB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE32823-2B65-4B16-AFBD-FA3FF458CE59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25740" windowHeight="7935" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9788,8 +9788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0590B6B5-6004-4198-B532-BBF9AB18A4EE}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J69" sqref="A1:J69"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -11865,10 +11865,10 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>0</v>
